--- a/DataDriven_Framework_COTC/COTCSuite.xlsx
+++ b/DataDriven_Framework_COTC/COTCSuite.xlsx
@@ -63,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,12 +71,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,42 +399,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/DataDriven_Framework_COTC/COTCSuite.xlsx
+++ b/DataDriven_Framework_COTC/COTCSuite.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
